--- a/StructureDefinition-ext-R5-Communication.payload.xlsx
+++ b/StructureDefinition-ext-R5-Communication.payload.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-Communication.payload.xlsx
+++ b/StructureDefinition-ext-R5-Communication.payload.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="130">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `Communication.payload` 0..* `BackboneElement`
 *  R4: `Communication.payload` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Communication.payload` is mapped to FHIR R4 element `Communication.payload`.</t>
+Element `Communication.payload` has is mapped to FHIR R4 element `Communication.payload`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -345,8 +345,9 @@
 When using contentCodeableConcept, the CodeableConcept is what is being communicated and is not a categorization of the content.</t>
   </si>
   <si>
-    <t>Note that the target element context `Communication.payload.content[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Communication.payload`.
-Element `Communication.payload.content[x]` is mapped to FHIR R4 element `Communication.payload.content[x]`.
+    <t>Element `Communication.payload.content[x]` is part of an existing definition because parent element `Communication.payload` requires a cross-version extension.
+Note that the target element context `Communication.payload.content[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Communication.payload`.
+Element `Communication.payload.content[x]` has is mapped to FHIR R4 element `Communication.payload.content[x]`, but has no comparisons.
 Note that the target element context `Communication.payload.content[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Communication.payload`.</t>
   </si>
   <si>
@@ -392,6 +393,9 @@
   </si>
   <si>
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Communication.payload.content</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -1572,7 +1576,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1614,7 +1618,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1629,15 +1633,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1660,7 +1664,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1719,7 +1723,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1731,18 +1735,18 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1824,7 +1828,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>86</v>
@@ -1839,15 +1843,15 @@
         <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1870,13 +1874,13 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1927,7 +1931,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -1939,10 +1943,10 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Communication.payload.xlsx
+++ b/StructureDefinition-ext-R5-Communication.payload.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-Communication.payload.xlsx
+++ b/StructureDefinition-ext-R5-Communication.payload.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="129">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `Communication.payload` 0..* `BackboneElement`
 *  R4: `Communication.payload` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Communication.payload` has is mapped to FHIR R4 element `Communication.payload`, but has no comparisons.</t>
+Element `Communication.payload` is mapped to FHIR R4 element `Communication.payload` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -345,9 +345,8 @@
 When using contentCodeableConcept, the CodeableConcept is what is being communicated and is not a categorization of the content.</t>
   </si>
   <si>
-    <t>Element `Communication.payload.content[x]` is part of an existing definition because parent element `Communication.payload` requires a cross-version extension.
-Note that the target element context `Communication.payload.content[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Communication.payload`.
-Element `Communication.payload.content[x]` has is mapped to FHIR R4 element `Communication.payload.content[x]`, but has no comparisons.
+    <t>Note that the target element context `Communication.payload.content[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Communication.payload`.
+Element `Communication.payload.content[x]` is mapped to FHIR R4 element `Communication.payload.content[x]` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
 Note that the target element context `Communication.payload.content[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Communication.payload`.</t>
   </si>
   <si>
@@ -393,9 +392,6 @@
   </si>
   <si>
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Communication.payload.content</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -768,7 +764,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="166.984375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="170.984375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1576,49 +1572,49 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1633,15 +1629,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1664,7 +1660,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1723,7 +1719,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1735,18 +1731,18 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1828,7 +1824,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>86</v>
@@ -1843,15 +1839,15 @@
         <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1874,13 +1870,13 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1931,7 +1927,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -1943,10 +1939,10 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
